--- a/baseline_model/data/Staging_Area_info.xlsx
+++ b/baseline_model/data/Staging_Area_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yin\Desktop\bay\Long_Term_Housing_Planning\baseline_model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB0E1CA-712F-44B3-9BAD-225603F2EDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA0C65C-216B-436F-866A-06F540518D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="16440" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="29760" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Warehouse_FEMA_4" sheetId="1" r:id="rId1"/>
@@ -925,7 +925,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -948,7 +948,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>300000</v>
+        <v>30000000</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -956,7 +956,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>300000</v>
+        <v>30000000</v>
       </c>
     </row>
   </sheetData>
